--- a/Mini-projet-trey_Buchser_Joye/data/Solar_production_curves.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/Solar_production_curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD62819-C485-4AEC-A5BE-5E411173534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA666767-1AE3-499D-8E15-E04CDE0B5BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{28D01FDE-29E5-4384-BECD-9C48CE0FB4DD}"/>
   </bookViews>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C3DFC-913A-4FCE-81C4-13FFED099605}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Mini-projet-trey_Buchser_Joye/data/Solar_production_curves.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/Solar_production_curves.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA666767-1AE3-499D-8E15-E04CDE0B5BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A13D5-B046-404A-8A2B-5ABD017D29CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{28D01FDE-29E5-4384-BECD-9C48CE0FB4DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28D01FDE-29E5-4384-BECD-9C48CE0FB4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="60437" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,32 +84,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E329DF0-7E5D-4F59-8CD8-9D48360555EC}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,1058 +488,1058 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>0.11458333333333333</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>0.125</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>0.13541666666666666</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>0.14583333333333334</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>0.15625</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>0.17708333333333334</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>0.1875</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>0.19791666666666666</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>0.51365527499999553</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>1.0273105499999924</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>0.21875</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>1.540965824999988</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>2.0546210999999834</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>0.23958333333333334</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>3.8854799874999744</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>0.25</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>5.7163388750000035</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>0.26041666666666669</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>7.5471977625000353</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>9.378056650000083</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>0.28125</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>11.908692881250065</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>14.439329112500047</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>0.30208333333333331</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>16.969965343750019</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>0.3125</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>19.500601575000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>0.32291666666666669</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>3.5768706249999768E-2</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>21.867990731249986</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>7.1537412499999342E-2</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>24.235379887499956</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>0.34375</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>0.10730611874999911</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>26.602769043749941</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>0.14307482499999888</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>28.970158199999922</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>1.7389414937499703</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>31.13125341874996</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>0.375</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>3.3348081624999999</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>33.292348637499998</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>4.9306748312500295</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>35.45344385625004</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>6.5265415000000413</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>37.614539075000039</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>7.8181661375000333</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>38.703405281250028</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>9.1097907750000253</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>39.792271487500024</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>10.401415412500009</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>40.881137693750006</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>11.69304005</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>41.970003900000002</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>13.406195074999989</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>42.486155268749997</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>15.119350099999968</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>43.002306637499991</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>16.832505124999955</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>43.518458006249986</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>18.545660149999946</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>44.034609374999988</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>17.983342525000012</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>44.652867187499993</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>0.5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>17.421024899999999</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>45.271124999999998</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>16.858707274999993</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>45.88938281250001</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>16.296389649999938</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>46.507640624999986</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>14.374237549999958</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>46.112312499999994</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>12.452085449999979</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>45.716984374999996</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>10.529933349999979</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>45.321656249999997</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>8.6077812500000004</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>44.926328124999998</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>8.7527277812499982</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>43.689188475000016</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>8.8976743124999995</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>42.452048825000013</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>9.0426208437499973</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>41.214909175000031</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>9.1875673749999951</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>39.977769525000042</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>8.3259988937500093</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>39.41670019375001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>0.625</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>7.4644304125000005</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>38.855630862500007</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>6.6028619312499908</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>38.294561531249997</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>5.7412934499999571</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>37.733492199999944</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>4.4188910687499714</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>35.91802246874996</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>3.0964886874999862</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>34.102552737499984</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>1.7740863062499863</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>32.287083006249979</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>0.45168392499999999</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>30.471613274999999</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>0.33876294375000121</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>27.977577631250028</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>0.22584196250000121</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>25.483541987500026</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>0.71875</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>0.11292098125000238</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>22.989506343750055</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>3.6082248300317588E-15</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>20.495470700000084</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>18.088569087500026</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>0.75</v>
       </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>15.681667475000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
         <v>13.274765862499976</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>10.867864249999942</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>0.78125</v>
       </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>9.0340941687499612</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>7.2003240874999808</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>5.3665540062499808</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>0.8125</v>
       </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>3.5327839250000004</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>2.6495879437500101</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B81" s="1">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
         <v>1.7663919625000095</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>0.84375</v>
       </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
         <v>0.88319598125001875</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
         <v>2.7977620220553945E-14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>0.86458333333333337</v>
       </c>
-      <c r="B84" s="1">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>0.875</v>
       </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>0.88541666666666663</v>
       </c>
-      <c r="B86" s="1">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="B87" s="1">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>0.90625</v>
       </c>
-      <c r="B88" s="1">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>0.92708333333333337</v>
       </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>0.9375</v>
       </c>
-      <c r="B91" s="1">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>0.94791666666666663</v>
       </c>
-      <c r="B92" s="1">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>0.96875</v>
       </c>
-      <c r="B94" s="1">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>0.97916666666666663</v>
       </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>0.98958333333333337</v>
       </c>
-      <c r="B96" s="1">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>1</v>
       </c>
-      <c r="B97" s="1">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
         <v>0</v>
       </c>
     </row>
@@ -1556,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C3DFC-913A-4FCE-81C4-13FFED099605}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,1058 +1577,1058 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9.375E-2</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>0.11458333333333333</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>0.125</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>0.13541666666666666</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>0.14583333333333334</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>0.15625</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>0.16666666666666666</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>0.17708333333333334</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>0.1875</v>
       </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>0.19791666666666666</v>
       </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>0.20833333333333334</v>
       </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>0.21875</v>
       </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0.45819869999999596</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>0.91639739999999326</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>0.23958333333333334</v>
       </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>1.3745960999999891</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>0.25</v>
       </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>1.8327947999999852</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>0.26041666666666669</v>
       </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>3.5308524499999763</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>0.27083333333333331</v>
       </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>5.228910100000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>0.28125</v>
       </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>6.9269677500000331</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>8.6250254000000819</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>0.30208333333333331</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>11.188261725000066</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>0.3125</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>13.751498050000048</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>0.32291666666666669</v>
       </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>16.314734375000018</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>18.877970700000002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>0.34375</v>
       </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>21.176808593749985</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>23.475646487499958</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>0.5244137562499902</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>25.774484381249941</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>0.375</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>1.0488275124999999</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>28.073322274999924</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>1.5732412687500099</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>30.060233893749963</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>2.0976550250000154</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>32.047145512500002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>0.40625</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>2.5890765937500122</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>34.034057131250037</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>3.0804981625000094</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>36.020968750000058</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>3.5719197312500031</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>37.718104493750047</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>0.4375</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>4.0633413000000003</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>39.415240237500029</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>0.44791666666666669</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>4.2947477937499992</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>41.112375981250011</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>4.5261542874999963</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>42.809511725</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>0.46875</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>4.7575607812499943</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>43.62370215624999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>4.9889672749999932</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>44.437892587499981</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>5.0990180562499985</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>45.252083018749978</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>0.5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>5.2090688375000003</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>46.066273449999969</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>5.3191196187500012</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>46.192474618749998</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>5.4291703999999967</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>46.318675787499998</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>0.53125</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>5.3179660562499977</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>46.444876956249999</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>5.2067617124999996</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>46.571078124999985</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>0.55208333333333337</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>5.0955573687499998</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>46.101112306249988</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>4.9843530250000008</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>45.63114648749999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>0.57291666666666663</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>4.7139557500000038</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>45.161180668749992</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>4.4435584750000032</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>44.691214849999994</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>4.1731612000000062</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>44.153650393750006</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>3.9027639250000092</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>43.616085937500003</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>0.61458333333333337</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>3.4441038250000053</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>43.078521481250014</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>0.625</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>2.9854437250000001</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>42.540957025000019</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>0.63541666666666663</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>2.5267836249999949</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>40.609186518750022</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>2.0681235249999834</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>38.677416012500004</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>0.65625</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>1.551092643749989</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>36.745645506249986</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>1.0340617624999944</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>34.813874999999946</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>0.67708333333333337</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>0.51703088124999441</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>33.040834962499964</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>0.6875</v>
       </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
         <v>31.267794924999983</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>0.69791666666666663</v>
       </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
         <v>29.494754887499983</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
         <v>27.721714850000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>0.71875</v>
       </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
         <v>25.484246587500024</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
         <v>23.246778325000022</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>0.73958333333333337</v>
       </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
         <v>21.009310062500045</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>0.75</v>
       </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
         <v>18.771841800000068</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>0.76041666666666663</v>
       </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
         <v>16.321886231250023</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>13.871930662499999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>0.78125</v>
       </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
         <v>11.421975093749975</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
         <v>8.9720195249999506</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>0.80208333333333337</v>
       </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>7.4409991437499681</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>0.8125</v>
       </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>5.9099787624999838</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>0.82291666666666663</v>
       </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
         <v>4.3789583812499844</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B81" s="1">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
         <v>2.8479380000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>0.84375</v>
       </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
         <v>2.1359535000000074</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>0.85416666666666663</v>
       </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
         <v>1.4239690000000076</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>0.86458333333333337</v>
       </c>
-      <c r="B84" s="1">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
         <v>0.71198450000001534</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>0.875</v>
       </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
         <v>2.3092638912203256E-14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>0.88541666666666663</v>
       </c>
-      <c r="B86" s="1">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>0.89583333333333337</v>
       </c>
-      <c r="B87" s="1">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>0.90625</v>
       </c>
-      <c r="B88" s="1">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>0.91666666666666663</v>
       </c>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>0.92708333333333337</v>
       </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>0.9375</v>
       </c>
-      <c r="B91" s="1">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>0.94791666666666663</v>
       </c>
-      <c r="B92" s="1">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>0.96875</v>
       </c>
-      <c r="B94" s="1">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>0.97916666666666663</v>
       </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>0.98958333333333337</v>
       </c>
-      <c r="B96" s="1">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>1</v>
       </c>
-      <c r="B97" s="1">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
         <v>0</v>
       </c>
     </row>

--- a/Mini-projet-trey_Buchser_Joye/data/Solar_production_curves.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/Solar_production_curves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A13D5-B046-404A-8A2B-5ABD017D29CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9280B322-D262-4329-AA0A-51AC10421826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{28D01FDE-29E5-4384-BECD-9C48CE0FB4DD}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Temps (heure:min)</t>
   </si>
   <si>
-    <t>Énergie [kWh] hiver</t>
+    <t>Énergie [W] hiver</t>
   </si>
   <si>
-    <t>Énergie [kWh] été</t>
+    <t>Énergie [W] été</t>
   </si>
 </sst>
 </file>
@@ -128,8 +128,8 @@
   <autoFilter ref="A1:C97" xr:uid="{64710B2D-9A04-440C-BD70-0ED2E3446E40}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{540E0E5A-C3AE-48B6-B64E-9EC6F369A94C}" name="Temps (heure:min)" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{25732891-1587-44FB-9954-56BFFFDDF18D}" name="Énergie [kWh] hiver" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9C59374A-FC85-4983-86B9-F656A33CBC31}" name="Énergie [kWh] été" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{25732891-1587-44FB-9954-56BFFFDDF18D}" name="Énergie [W] hiver" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9C59374A-FC85-4983-86B9-F656A33CBC31}" name="Énergie [W] été" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -140,8 +140,8 @@
   <autoFilter ref="A1:C97" xr:uid="{48B82013-225F-4291-B221-6B7EEEDFE7FC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FAC55AB5-D6CC-418D-B923-B893CEFF8F30}" name="Temps (heure:min)" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{577A166E-D35E-4C68-9D19-8BD6DF192E26}" name="Énergie [kWh] hiver" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{22D38CE0-69B2-4883-A4A9-AA617F1B2958}" name="Énergie [kWh] été" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{577A166E-D35E-4C68-9D19-8BD6DF192E26}" name="Énergie [W] hiver" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{22D38CE0-69B2-4883-A4A9-AA617F1B2958}" name="Énergie [W] été" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E329DF0-7E5D-4F59-8CD8-9D48360555EC}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.51365527499999553</v>
+        <v>2054.6210999999821</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.0273105499999924</v>
+        <v>4109.2421999999697</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.540965824999988</v>
+        <v>6163.8632999999518</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.0546210999999834</v>
+        <v>8218.4843999999339</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.8854799874999744</v>
+        <v>15541.919949999898</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.7163388750000035</v>
+        <v>22865.355500000012</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>7.5471977625000353</v>
+        <v>30188.791050000142</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>9.378056650000083</v>
+        <v>37512.226600000329</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>11.908692881250065</v>
+        <v>47634.771525000258</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>14.439329112500047</v>
+        <v>57757.316450000188</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>16.969965343750019</v>
+        <v>67879.86137500008</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>19.500601575000001</v>
+        <v>78002.406300000002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,10 +822,10 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="B32">
-        <v>3.5768706249999768E-2</v>
+        <v>143.07482499999907</v>
       </c>
       <c r="C32">
-        <v>21.867990731249986</v>
+        <v>87471.962924999942</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,10 +833,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B33">
-        <v>7.1537412499999342E-2</v>
+        <v>286.14964999999739</v>
       </c>
       <c r="C33">
-        <v>24.235379887499956</v>
+        <v>96941.519549999823</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -844,10 +844,10 @@
         <v>0.34375</v>
       </c>
       <c r="B34">
-        <v>0.10730611874999911</v>
+        <v>429.22447499999646</v>
       </c>
       <c r="C34">
-        <v>26.602769043749941</v>
+        <v>106411.07617499976</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,10 +855,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B35">
-        <v>0.14307482499999888</v>
+        <v>572.29929999999547</v>
       </c>
       <c r="C35">
-        <v>28.970158199999922</v>
+        <v>115880.63279999969</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -866,10 +866,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="B36">
-        <v>1.7389414937499703</v>
+        <v>6955.7659749998811</v>
       </c>
       <c r="C36">
-        <v>31.13125341874996</v>
+        <v>124525.01367499983</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,10 +877,10 @@
         <v>0.375</v>
       </c>
       <c r="B37">
-        <v>3.3348081624999999</v>
+        <v>13339.23265</v>
       </c>
       <c r="C37">
-        <v>33.292348637499998</v>
+        <v>133169.39455</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B38">
-        <v>4.9306748312500295</v>
+        <v>19722.699325000118</v>
       </c>
       <c r="C38">
-        <v>35.45344385625004</v>
+        <v>141813.77542500015</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,10 +899,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B39">
-        <v>6.5265415000000413</v>
+        <v>26106.166000000165</v>
       </c>
       <c r="C39">
-        <v>37.614539075000039</v>
+        <v>150458.15630000015</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -910,10 +910,10 @@
         <v>0.40625</v>
       </c>
       <c r="B40">
-        <v>7.8181661375000333</v>
+        <v>31272.664550000132</v>
       </c>
       <c r="C40">
-        <v>38.703405281250028</v>
+        <v>154813.62112500012</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -921,10 +921,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B41">
-        <v>9.1097907750000253</v>
+        <v>36439.1631000001</v>
       </c>
       <c r="C41">
-        <v>39.792271487500024</v>
+        <v>159169.0859500001</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,10 +932,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="B42">
-        <v>10.401415412500009</v>
+        <v>41605.661650000038</v>
       </c>
       <c r="C42">
-        <v>40.881137693750006</v>
+        <v>163524.55077500001</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,10 +943,10 @@
         <v>0.4375</v>
       </c>
       <c r="B43">
-        <v>11.69304005</v>
+        <v>46772.160199999998</v>
       </c>
       <c r="C43">
-        <v>41.970003900000002</v>
+        <v>167880.01560000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -954,10 +954,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="B44">
-        <v>13.406195074999989</v>
+        <v>53624.780299999955</v>
       </c>
       <c r="C44">
-        <v>42.486155268749997</v>
+        <v>169944.62107499997</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -965,10 +965,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B45">
-        <v>15.119350099999968</v>
+        <v>60477.400399999875</v>
       </c>
       <c r="C45">
-        <v>43.002306637499991</v>
+        <v>172009.22654999996</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -976,10 +976,10 @@
         <v>0.46875</v>
       </c>
       <c r="B46">
-        <v>16.832505124999955</v>
+        <v>67330.020499999824</v>
       </c>
       <c r="C46">
-        <v>43.518458006249986</v>
+        <v>174073.83202499995</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -987,10 +987,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B47">
-        <v>18.545660149999946</v>
+        <v>74182.640599999781</v>
       </c>
       <c r="C47">
-        <v>44.034609374999988</v>
+        <v>176138.43749999994</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,10 +998,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="B48">
-        <v>17.983342525000012</v>
+        <v>71933.370100000044</v>
       </c>
       <c r="C48">
-        <v>44.652867187499993</v>
+        <v>178611.46874999997</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,10 +1009,10 @@
         <v>0.5</v>
       </c>
       <c r="B49">
-        <v>17.421024899999999</v>
+        <v>69684.099600000001</v>
       </c>
       <c r="C49">
-        <v>45.271124999999998</v>
+        <v>181084.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1020,10 +1020,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="B50">
-        <v>16.858707274999993</v>
+        <v>67434.829099999974</v>
       </c>
       <c r="C50">
-        <v>45.88938281250001</v>
+        <v>183557.53125000003</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1031,10 +1031,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B51">
-        <v>16.296389649999938</v>
+        <v>65185.558599999749</v>
       </c>
       <c r="C51">
-        <v>46.507640624999986</v>
+        <v>186030.56249999994</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1042,10 +1042,10 @@
         <v>0.53125</v>
       </c>
       <c r="B52">
-        <v>14.374237549999958</v>
+        <v>57496.950199999832</v>
       </c>
       <c r="C52">
-        <v>46.112312499999994</v>
+        <v>184449.24999999997</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1053,10 +1053,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B53">
-        <v>12.452085449999979</v>
+        <v>49808.341799999915</v>
       </c>
       <c r="C53">
-        <v>45.716984374999996</v>
+        <v>182867.93749999997</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,10 +1064,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="B54">
-        <v>10.529933349999979</v>
+        <v>42119.733399999917</v>
       </c>
       <c r="C54">
-        <v>45.321656249999997</v>
+        <v>181286.625</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1075,10 +1075,10 @@
         <v>0.5625</v>
       </c>
       <c r="B55">
-        <v>8.6077812500000004</v>
+        <v>34431.125</v>
       </c>
       <c r="C55">
-        <v>44.926328124999998</v>
+        <v>179705.3125</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="B56">
-        <v>8.7527277812499982</v>
+        <v>35010.911124999991</v>
       </c>
       <c r="C56">
-        <v>43.689188475000016</v>
+        <v>174756.75390000007</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1097,10 +1097,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B57">
-        <v>8.8976743124999995</v>
+        <v>35590.697249999997</v>
       </c>
       <c r="C57">
-        <v>42.452048825000013</v>
+        <v>169808.19530000005</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1108,10 +1108,10 @@
         <v>0.59375</v>
       </c>
       <c r="B58">
-        <v>9.0426208437499973</v>
+        <v>36170.483374999989</v>
       </c>
       <c r="C58">
-        <v>41.214909175000031</v>
+        <v>164859.63670000012</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1119,10 +1119,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B59">
-        <v>9.1875673749999951</v>
+        <v>36750.26949999998</v>
       </c>
       <c r="C59">
-        <v>39.977769525000042</v>
+        <v>159911.07810000016</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,10 +1130,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="B60">
-        <v>8.3259988937500093</v>
+        <v>33303.995575000037</v>
       </c>
       <c r="C60">
-        <v>39.41670019375001</v>
+        <v>157666.80077500004</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1141,10 +1141,10 @@
         <v>0.625</v>
       </c>
       <c r="B61">
-        <v>7.4644304125000005</v>
+        <v>29857.721650000003</v>
       </c>
       <c r="C61">
-        <v>38.855630862500007</v>
+        <v>155422.52345000004</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1152,10 +1152,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="B62">
-        <v>6.6028619312499908</v>
+        <v>26411.447724999962</v>
       </c>
       <c r="C62">
-        <v>38.294561531249997</v>
+        <v>153178.24612499998</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1163,10 +1163,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B63">
-        <v>5.7412934499999571</v>
+        <v>22965.173799999829</v>
       </c>
       <c r="C63">
-        <v>37.733492199999944</v>
+        <v>150933.96879999977</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1174,10 +1174,10 @@
         <v>0.65625</v>
       </c>
       <c r="B64">
-        <v>4.4188910687499714</v>
+        <v>17675.564274999884</v>
       </c>
       <c r="C64">
-        <v>35.91802246874996</v>
+        <v>143672.08987499983</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1185,10 +1185,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B65">
-        <v>3.0964886874999862</v>
+        <v>12385.954749999944</v>
       </c>
       <c r="C65">
-        <v>34.102552737499984</v>
+        <v>136410.21094999995</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1196,10 +1196,10 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="B66">
-        <v>1.7740863062499863</v>
+        <v>7096.3452249999455</v>
       </c>
       <c r="C66">
-        <v>32.287083006249979</v>
+        <v>129148.33202499992</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1207,10 +1207,10 @@
         <v>0.6875</v>
       </c>
       <c r="B67">
-        <v>0.45168392499999999</v>
+        <v>1806.7357</v>
       </c>
       <c r="C67">
-        <v>30.471613274999999</v>
+        <v>121886.4531</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1218,10 +1218,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="B68">
-        <v>0.33876294375000121</v>
+        <v>1355.0517750000049</v>
       </c>
       <c r="C68">
-        <v>27.977577631250028</v>
+        <v>111910.31052500011</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1229,10 +1229,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="B69">
-        <v>0.22584196250000121</v>
+        <v>903.36785000000486</v>
       </c>
       <c r="C69">
-        <v>25.483541987500026</v>
+        <v>101934.1679500001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1240,10 +1240,10 @@
         <v>0.71875</v>
       </c>
       <c r="B70">
-        <v>0.11292098125000238</v>
+        <v>451.68392500000954</v>
       </c>
       <c r="C70">
-        <v>22.989506343750055</v>
+        <v>91958.025375000216</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1251,10 +1251,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B71">
-        <v>3.6082248300317588E-15</v>
+        <v>1.4432899320127035E-11</v>
       </c>
       <c r="C71">
-        <v>20.495470700000084</v>
+        <v>81981.882800000341</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>18.088569087500026</v>
+        <v>72354.276350000102</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>15.681667475000001</v>
+        <v>62726.669900000008</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>13.274765862499976</v>
+        <v>53099.0634499999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>10.867864249999942</v>
+        <v>43471.456999999769</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>9.0340941687499612</v>
+        <v>36136.376674999847</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>7.2003240874999808</v>
+        <v>28801.296349999924</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>5.3665540062499808</v>
+        <v>21466.216024999922</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>3.5327839250000004</v>
+        <v>14131.135700000001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>2.6495879437500101</v>
+        <v>10598.351775000041</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>1.7663919625000095</v>
+        <v>7065.5678500000377</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>0.88319598125001875</v>
+        <v>3532.7839250000752</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>2.7977620220553945E-14</v>
+        <v>1.1191048088221578E-10</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.45819869999999596</v>
+        <v>1832.7947999999838</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.91639739999999326</v>
+        <v>3665.589599999973</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.3745960999999891</v>
+        <v>5498.3843999999563</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.8327947999999852</v>
+        <v>7331.1791999999405</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3.5308524499999763</v>
+        <v>14123.409799999905</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>5.228910100000002</v>
+        <v>20915.640400000008</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>6.9269677500000331</v>
+        <v>27707.871000000134</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>8.6250254000000819</v>
+        <v>34500.101600000329</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>11.188261725000066</v>
+        <v>44753.046900000263</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>13.751498050000048</v>
+        <v>55005.99220000019</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>16.314734375000018</v>
+        <v>65258.937500000073</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>18.877970700000002</v>
+        <v>75511.882800000007</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>21.176808593749985</v>
+        <v>84707.234374999942</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>23.475646487499958</v>
+        <v>93902.585949999833</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1955,10 +1955,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="B36">
-        <v>0.5244137562499902</v>
+        <v>2097.6550249999609</v>
       </c>
       <c r="C36">
-        <v>25.774484381249941</v>
+        <v>103097.93752499977</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1966,10 +1966,10 @@
         <v>0.375</v>
       </c>
       <c r="B37">
-        <v>1.0488275124999999</v>
+        <v>4195.31005</v>
       </c>
       <c r="C37">
-        <v>28.073322274999924</v>
+        <v>112293.2890999997</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1977,10 +1977,10 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B38">
-        <v>1.5732412687500099</v>
+        <v>6292.9650750000401</v>
       </c>
       <c r="C38">
-        <v>30.060233893749963</v>
+        <v>120240.93557499985</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1988,10 +1988,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B39">
-        <v>2.0976550250000154</v>
+        <v>8390.6201000000619</v>
       </c>
       <c r="C39">
-        <v>32.047145512500002</v>
+        <v>128188.58205000001</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1999,10 +1999,10 @@
         <v>0.40625</v>
       </c>
       <c r="B40">
-        <v>2.5890765937500122</v>
+        <v>10356.306375000049</v>
       </c>
       <c r="C40">
-        <v>34.034057131250037</v>
+        <v>136136.22852500016</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2010,10 +2010,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B41">
-        <v>3.0804981625000094</v>
+        <v>12321.992650000038</v>
       </c>
       <c r="C41">
-        <v>36.020968750000058</v>
+        <v>144083.87500000023</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2021,10 +2021,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="B42">
-        <v>3.5719197312500031</v>
+        <v>14287.678925000013</v>
       </c>
       <c r="C42">
-        <v>37.718104493750047</v>
+        <v>150872.41797500019</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2032,10 +2032,10 @@
         <v>0.4375</v>
       </c>
       <c r="B43">
-        <v>4.0633413000000003</v>
+        <v>16253.3652</v>
       </c>
       <c r="C43">
-        <v>39.415240237500029</v>
+        <v>157660.96095000012</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2043,10 +2043,10 @@
         <v>0.44791666666666669</v>
       </c>
       <c r="B44">
-        <v>4.2947477937499992</v>
+        <v>17178.991174999996</v>
       </c>
       <c r="C44">
-        <v>41.112375981250011</v>
+        <v>164449.50392500006</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2054,10 +2054,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B45">
-        <v>4.5261542874999963</v>
+        <v>18104.617149999984</v>
       </c>
       <c r="C45">
-        <v>42.809511725</v>
+        <v>171238.04689999999</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2065,10 +2065,10 @@
         <v>0.46875</v>
       </c>
       <c r="B46">
-        <v>4.7575607812499943</v>
+        <v>19030.243124999975</v>
       </c>
       <c r="C46">
-        <v>43.62370215624999</v>
+        <v>174494.80862499998</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2076,10 +2076,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B47">
-        <v>4.9889672749999932</v>
+        <v>19955.869099999974</v>
       </c>
       <c r="C47">
-        <v>44.437892587499981</v>
+        <v>177751.57034999994</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2087,10 +2087,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="B48">
-        <v>5.0990180562499985</v>
+        <v>20396.072224999993</v>
       </c>
       <c r="C48">
-        <v>45.252083018749978</v>
+        <v>181008.33207499993</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2098,10 +2098,10 @@
         <v>0.5</v>
       </c>
       <c r="B49">
-        <v>5.2090688375000003</v>
+        <v>20836.27535</v>
       </c>
       <c r="C49">
-        <v>46.066273449999969</v>
+        <v>184265.09379999989</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2109,10 +2109,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="B50">
-        <v>5.3191196187500012</v>
+        <v>21276.478475000004</v>
       </c>
       <c r="C50">
-        <v>46.192474618749998</v>
+        <v>184769.89847499999</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2120,10 +2120,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B51">
-        <v>5.4291703999999967</v>
+        <v>21716.681599999985</v>
       </c>
       <c r="C51">
-        <v>46.318675787499998</v>
+        <v>185274.70314999999</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2131,10 +2131,10 @@
         <v>0.53125</v>
       </c>
       <c r="B52">
-        <v>5.3179660562499977</v>
+        <v>21271.86422499999</v>
       </c>
       <c r="C52">
-        <v>46.444876956249999</v>
+        <v>185779.50782500001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2142,10 +2142,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="B53">
-        <v>5.2067617124999996</v>
+        <v>20827.046849999999</v>
       </c>
       <c r="C53">
-        <v>46.571078124999985</v>
+        <v>186284.31249999994</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2153,10 +2153,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="B54">
-        <v>5.0955573687499998</v>
+        <v>20382.229475</v>
       </c>
       <c r="C54">
-        <v>46.101112306249988</v>
+        <v>184404.44922499996</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2164,10 +2164,10 @@
         <v>0.5625</v>
       </c>
       <c r="B55">
-        <v>4.9843530250000008</v>
+        <v>19937.412100000001</v>
       </c>
       <c r="C55">
-        <v>45.63114648749999</v>
+        <v>182524.58594999995</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2175,10 +2175,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="B56">
-        <v>4.7139557500000038</v>
+        <v>18855.823000000015</v>
       </c>
       <c r="C56">
-        <v>45.161180668749992</v>
+        <v>180644.72267499997</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2186,10 +2186,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="B57">
-        <v>4.4435584750000032</v>
+        <v>17774.233900000014</v>
       </c>
       <c r="C57">
-        <v>44.691214849999994</v>
+        <v>178764.85939999999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2197,10 +2197,10 @@
         <v>0.59375</v>
       </c>
       <c r="B58">
-        <v>4.1731612000000062</v>
+        <v>16692.644800000024</v>
       </c>
       <c r="C58">
-        <v>44.153650393750006</v>
+        <v>176614.60157500004</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2208,10 +2208,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B59">
-        <v>3.9027639250000092</v>
+        <v>15611.055700000037</v>
       </c>
       <c r="C59">
-        <v>43.616085937500003</v>
+        <v>174464.34375</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2219,10 +2219,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="B60">
-        <v>3.4441038250000053</v>
+        <v>13776.415300000021</v>
       </c>
       <c r="C60">
-        <v>43.078521481250014</v>
+        <v>172314.08592500005</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2230,10 +2230,10 @@
         <v>0.625</v>
       </c>
       <c r="B61">
-        <v>2.9854437250000001</v>
+        <v>11941.7749</v>
       </c>
       <c r="C61">
-        <v>42.540957025000019</v>
+        <v>170163.82810000007</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2241,10 +2241,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="B62">
-        <v>2.5267836249999949</v>
+        <v>10107.13449999998</v>
       </c>
       <c r="C62">
-        <v>40.609186518750022</v>
+        <v>162436.74607500009</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2252,10 +2252,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B63">
-        <v>2.0681235249999834</v>
+        <v>8272.4940999999344</v>
       </c>
       <c r="C63">
-        <v>38.677416012500004</v>
+        <v>154709.66405000002</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2263,10 +2263,10 @@
         <v>0.65625</v>
       </c>
       <c r="B64">
-        <v>1.551092643749989</v>
+        <v>6204.3705749999563</v>
       </c>
       <c r="C64">
-        <v>36.745645506249986</v>
+        <v>146982.58202499995</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2274,10 +2274,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B65">
-        <v>1.0340617624999944</v>
+        <v>4136.2470499999772</v>
       </c>
       <c r="C65">
-        <v>34.813874999999946</v>
+        <v>139255.4999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="B66">
-        <v>0.51703088124999441</v>
+        <v>2068.1235249999777</v>
       </c>
       <c r="C66">
-        <v>33.040834962499964</v>
+        <v>132163.33984999984</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>31.267794924999983</v>
+        <v>125071.17969999994</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>29.494754887499983</v>
+        <v>117979.01954999994</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>27.721714850000001</v>
+        <v>110886.8594</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>25.484246587500024</v>
+        <v>101936.98635000009</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>23.246778325000022</v>
+        <v>92987.113300000085</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>21.009310062500045</v>
+        <v>84037.240250000177</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>18.771841800000068</v>
+        <v>75087.36720000027</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>16.321886231250023</v>
+        <v>65287.544925000089</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>13.871930662499999</v>
+        <v>55487.722649999996</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>11.421975093749975</v>
+        <v>45687.900374999896</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>8.9720195249999506</v>
+        <v>35888.078099999802</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>7.4409991437499681</v>
+        <v>29763.996574999874</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>5.9099787624999838</v>
+        <v>23639.915049999934</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>4.3789583812499844</v>
+        <v>17515.833524999936</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>2.8479380000000001</v>
+        <v>11391.752</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>2.1359535000000074</v>
+        <v>8543.8140000000294</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1.4239690000000076</v>
+        <v>5695.8760000000302</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0.71198450000001534</v>
+        <v>2847.9380000000615</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>2.3092638912203256E-14</v>
+        <v>9.2370555648813024E-11</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
